--- a/inputs/redu_fut_metodoq_public.xlsx
+++ b/inputs/redu_fut_metodoq_public.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\daniel\Documents\GitHub\qmethod_fut\datos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\daniel\Documents\GitHub\qmethod_fut\inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B23A4B81-6D1C-46CC-B56C-776D96E0F5F1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73089796-C819-4F54-AB4A-354F0BFF865F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Instrucciones" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1294" uniqueCount="310">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1257" uniqueCount="287">
   <si>
     <t>sta_id</t>
   </si>
@@ -182,72 +182,6 @@
     <t>a pie</t>
   </si>
   <si>
-    <t>t1, t3, t5A, t5B, t9</t>
-  </si>
-  <si>
-    <t>t4, t7, t8, t10</t>
-  </si>
-  <si>
-    <t>t2, t3</t>
-  </si>
-  <si>
-    <t>Categoria</t>
-  </si>
-  <si>
-    <t>t4, t5A, t6, t7, t8, t10</t>
-  </si>
-  <si>
-    <t>t1, t3, t9</t>
-  </si>
-  <si>
-    <t>t7, t10</t>
-  </si>
-  <si>
-    <t>t2, t4, t5A, t6, t8</t>
-  </si>
-  <si>
-    <t>t6, t7, t10</t>
-  </si>
-  <si>
-    <t>t2, t3, t4, t5, t8</t>
-  </si>
-  <si>
-    <t>t1, t5B, t9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">t2 </t>
-  </si>
-  <si>
-    <t>t1, t4</t>
-  </si>
-  <si>
-    <t>t10</t>
-  </si>
-  <si>
-    <t>t3, t5A, t5B, t8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">t9 </t>
-  </si>
-  <si>
-    <t>t1, t2, t4, t5A, t5B, t6, t8, t9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">t10 </t>
-  </si>
-  <si>
-    <t>t1, t3, t4, t5A, t5B, t6, t7, t8</t>
-  </si>
-  <si>
-    <t>t2, t4, t5A, t7, t8, t9</t>
-  </si>
-  <si>
-    <t>t1, t3, t5B</t>
-  </si>
-  <si>
-    <t>t1, t2, t3, t4, t5A, t5B, t6, t7, t8, t9,t10</t>
-  </si>
-  <si>
     <t>3</t>
   </si>
   <si>
@@ -546,9 +480,6 @@
   </si>
   <si>
     <t>Edad</t>
-  </si>
-  <si>
-    <t>t6, t7</t>
   </si>
   <si>
     <t>Genero</t>
@@ -677,9 +608,6 @@
     <t xml:space="preserve">Para mí sería muy importante contar con parques cerca de mi casa </t>
   </si>
   <si>
-    <t xml:space="preserve"> Me agradaría vivir en un edificio de más de seis pisos</t>
-  </si>
-  <si>
     <t>Me agradaría salir de mi casa y poder encontrar un taxi con facilidad</t>
   </si>
   <si>
@@ -1023,6 +951,9 @@
   </si>
   <si>
     <t>D36</t>
+  </si>
+  <si>
+    <t>Me agradaría vivir en un edificio de más de seis pisos</t>
   </si>
 </sst>
 </file>
@@ -1096,7 +1027,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1119,9 +1050,6 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1413,7 +1341,7 @@
   </sheetPr>
   <dimension ref="A1:A1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
@@ -1436,7 +1364,7 @@
     </row>
     <row r="4" spans="1:1" ht="36.9" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
-        <v>185</v>
+        <v>162</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="24.6" x14ac:dyDescent="0.4">
@@ -1446,7 +1374,7 @@
     </row>
     <row r="6" spans="1:1" ht="24.6" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
-        <v>186</v>
+        <v>163</v>
       </c>
     </row>
     <row r="7" spans="1:1" ht="12.3" x14ac:dyDescent="0.4"/>
@@ -2453,10 +2381,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:D37"/>
+  <dimension ref="A1:C37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.5" defaultRowHeight="12.3" x14ac:dyDescent="0.4"/>
@@ -2464,526 +2392,414 @@
     <col min="1" max="1" width="6.83203125" style="8" customWidth="1"/>
     <col min="2" max="2" width="109" style="11" customWidth="1"/>
     <col min="3" max="3" width="56.33203125" style="11" customWidth="1"/>
-    <col min="4" max="4" width="45.33203125" style="11" customWidth="1"/>
-    <col min="5" max="5" width="14.5" style="8" customWidth="1"/>
-    <col min="6" max="16384" width="14.5" style="8"/>
+    <col min="4" max="4" width="14.5" style="8" customWidth="1"/>
+    <col min="5" max="16384" width="14.5" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>224</v>
+        <v>200</v>
       </c>
       <c r="C1" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="10" t="s">
-        <v>44</v>
-      </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A2" s="8" t="s">
-        <v>274</v>
+        <v>250</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>188</v>
+        <v>165</v>
       </c>
       <c r="C2" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="D2" s="11" t="s">
-        <v>40</v>
-      </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A3" s="8" t="s">
-        <v>275</v>
+        <v>251</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>189</v>
+        <v>166</v>
       </c>
       <c r="C3" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="12" t="s">
-        <v>57</v>
-      </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A4" s="8" t="s">
-        <v>276</v>
+        <v>252</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>190</v>
+        <v>167</v>
       </c>
       <c r="C4" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="11" t="s">
-        <v>47</v>
-      </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A5" s="8" t="s">
-        <v>277</v>
+        <v>253</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>191</v>
+        <v>168</v>
       </c>
       <c r="C5" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="D5" s="11" t="s">
-        <v>33</v>
-      </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A6" s="8" t="s">
-        <v>278</v>
+        <v>254</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>219</v>
+        <v>195</v>
       </c>
       <c r="C6" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="11" t="s">
-        <v>50</v>
-      </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A7" s="8" t="s">
-        <v>279</v>
+        <v>255</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>192</v>
+        <v>169</v>
       </c>
       <c r="C7" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="11" t="s">
-        <v>56</v>
-      </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A8" s="8" t="s">
-        <v>280</v>
+        <v>256</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>193</v>
+        <v>170</v>
       </c>
       <c r="C8" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="11" t="s">
-        <v>46</v>
-      </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A9" s="8" t="s">
-        <v>281</v>
+        <v>257</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>220</v>
+        <v>196</v>
       </c>
       <c r="C9" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="11" t="s">
-        <v>41</v>
-      </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A10" s="8" t="s">
-        <v>282</v>
+        <v>258</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>194</v>
+        <v>286</v>
       </c>
       <c r="C10" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="11" t="s">
-        <v>52</v>
-      </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A11" s="8" t="s">
-        <v>283</v>
+        <v>259</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>195</v>
+        <v>171</v>
       </c>
       <c r="C11" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="D11" s="11" t="s">
-        <v>30</v>
-      </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A12" s="8" t="s">
-        <v>284</v>
+        <v>260</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>196</v>
+        <v>172</v>
       </c>
       <c r="C12" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="D12" s="11" t="s">
-        <v>60</v>
-      </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A13" s="8" t="s">
-        <v>285</v>
+        <v>261</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>197</v>
+        <v>173</v>
       </c>
       <c r="C13" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="D13" s="11" t="s">
-        <v>54</v>
-      </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A14" s="8" t="s">
-        <v>286</v>
+        <v>262</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>198</v>
+        <v>174</v>
       </c>
       <c r="C14" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="D14" s="11" t="s">
-        <v>43</v>
-      </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A15" s="8" t="s">
-        <v>287</v>
+        <v>263</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>199</v>
+        <v>175</v>
       </c>
       <c r="C15" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="D15" s="11" t="s">
-        <v>37</v>
-      </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A16" s="8" t="s">
-        <v>288</v>
+        <v>264</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>200</v>
+        <v>176</v>
       </c>
       <c r="C16" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="D16" s="11" t="s">
-        <v>61</v>
-      </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A17" s="8" t="s">
-        <v>289</v>
+        <v>265</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>221</v>
+        <v>197</v>
       </c>
       <c r="C17" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="11" t="s">
-        <v>49</v>
-      </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A18" s="8" t="s">
-        <v>290</v>
+        <v>266</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>201</v>
+        <v>177</v>
       </c>
       <c r="C18" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="D18" s="11" t="s">
-        <v>38</v>
-      </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A19" s="8" t="s">
-        <v>291</v>
+        <v>267</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>202</v>
+        <v>178</v>
       </c>
       <c r="C19" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="D19" s="11" t="s">
-        <v>52</v>
-      </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A20" s="8" t="s">
-        <v>292</v>
+        <v>268</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>222</v>
+        <v>198</v>
       </c>
       <c r="C20" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="D20" s="11" t="s">
-        <v>29</v>
-      </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A21" s="8" t="s">
-        <v>293</v>
+        <v>269</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>203</v>
+        <v>179</v>
       </c>
       <c r="C21" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="D21" s="11" t="s">
-        <v>59</v>
-      </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A22" s="8" t="s">
-        <v>294</v>
+        <v>270</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>204</v>
+        <v>180</v>
       </c>
       <c r="C22" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="D22" s="11" t="s">
-        <v>53</v>
-      </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A23" s="8" t="s">
-        <v>295</v>
+        <v>271</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>205</v>
+        <v>181</v>
       </c>
       <c r="C23" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="D23" s="12" t="s">
-        <v>62</v>
-      </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A24" s="8" t="s">
-        <v>296</v>
+        <v>272</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>206</v>
+        <v>182</v>
       </c>
       <c r="C24" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="D24" s="11" t="s">
-        <v>39</v>
-      </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A25" s="8" t="s">
-        <v>297</v>
+        <v>273</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>207</v>
+        <v>183</v>
       </c>
       <c r="C25" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="D25" s="11" t="s">
-        <v>51</v>
-      </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A26" s="8" t="s">
-        <v>298</v>
+        <v>274</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>223</v>
+        <v>199</v>
       </c>
       <c r="C26" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="D26" s="11" t="s">
-        <v>163</v>
-      </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A27" s="8" t="s">
-        <v>299</v>
+        <v>275</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>208</v>
+        <v>184</v>
       </c>
       <c r="C27" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="D27" s="11" t="s">
-        <v>36</v>
-      </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A28" s="8" t="s">
-        <v>300</v>
+        <v>276</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>209</v>
+        <v>185</v>
       </c>
       <c r="C28" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="D28" s="11" t="s">
-        <v>32</v>
-      </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A29" s="8" t="s">
-        <v>301</v>
+        <v>277</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>210</v>
+        <v>186</v>
       </c>
       <c r="C29" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="D29" s="11" t="s">
-        <v>56</v>
-      </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A30" s="8" t="s">
-        <v>302</v>
+        <v>278</v>
       </c>
       <c r="B30" s="11" t="s">
-        <v>211</v>
+        <v>187</v>
       </c>
       <c r="C30" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="D30" s="11" t="s">
-        <v>55</v>
-      </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A31" s="8" t="s">
-        <v>303</v>
+        <v>279</v>
       </c>
       <c r="B31" s="11" t="s">
-        <v>212</v>
+        <v>188</v>
       </c>
       <c r="C31" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="D31" s="11" t="s">
-        <v>34</v>
-      </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A32" s="8" t="s">
-        <v>304</v>
+        <v>280</v>
       </c>
       <c r="B32" s="11" t="s">
-        <v>213</v>
+        <v>189</v>
       </c>
       <c r="C32" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="D32" s="11" t="s">
-        <v>31</v>
-      </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A33" s="8" t="s">
-        <v>305</v>
+        <v>281</v>
       </c>
       <c r="B33" s="11" t="s">
-        <v>214</v>
+        <v>190</v>
       </c>
       <c r="C33" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="D33" s="11" t="s">
-        <v>42</v>
-      </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A34" s="8" t="s">
-        <v>306</v>
+        <v>282</v>
       </c>
       <c r="B34" s="11" t="s">
-        <v>215</v>
+        <v>191</v>
       </c>
       <c r="C34" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="D34" s="11" t="s">
-        <v>48</v>
-      </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A35" s="8" t="s">
-        <v>307</v>
+        <v>283</v>
       </c>
       <c r="B35" s="11" t="s">
-        <v>216</v>
+        <v>192</v>
       </c>
       <c r="C35" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="D35" s="11" t="s">
-        <v>58</v>
-      </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A36" s="8" t="s">
-        <v>308</v>
+        <v>284</v>
       </c>
       <c r="B36" s="11" t="s">
-        <v>217</v>
+        <v>193</v>
       </c>
       <c r="C36" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D36" s="11" t="s">
-        <v>45</v>
-      </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A37" s="8" t="s">
-        <v>309</v>
+        <v>285</v>
       </c>
       <c r="B37" s="11" t="s">
-        <v>218</v>
+        <v>194</v>
       </c>
       <c r="C37" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="D37" s="11" t="s">
         <v>35</v>
       </c>
     </row>
@@ -3001,8 +2817,8 @@
   </sheetPr>
   <dimension ref="A1:X1002"/>
   <sheetViews>
-    <sheetView zoomScale="94" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" zoomScale="94" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -3010,89 +2826,89 @@
     <col min="1" max="1" width="14.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" s="5" customFormat="1" ht="130" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:24" s="5" customFormat="1" ht="24.6" x14ac:dyDescent="0.4">
       <c r="A1" s="5" t="s">
-        <v>184</v>
+        <v>161</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>161</v>
+        <v>139</v>
       </c>
       <c r="C1" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="E1" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="D1" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>187</v>
-      </c>
       <c r="F1" s="5" t="s">
-        <v>165</v>
+        <v>142</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>166</v>
+        <v>143</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>167</v>
+        <v>144</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>168</v>
+        <v>145</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>169</v>
+        <v>146</v>
       </c>
       <c r="K1" s="5" t="s">
-        <v>170</v>
+        <v>147</v>
       </c>
       <c r="L1" s="5" t="s">
-        <v>171</v>
+        <v>148</v>
       </c>
       <c r="M1" s="5" t="s">
-        <v>172</v>
+        <v>149</v>
       </c>
       <c r="N1" s="5" t="s">
-        <v>173</v>
+        <v>150</v>
       </c>
       <c r="O1" s="5" t="s">
-        <v>174</v>
+        <v>151</v>
       </c>
       <c r="P1" s="5" t="s">
-        <v>175</v>
+        <v>152</v>
       </c>
       <c r="Q1" s="5" t="s">
-        <v>176</v>
+        <v>153</v>
       </c>
       <c r="R1" s="5" t="s">
-        <v>177</v>
+        <v>154</v>
       </c>
       <c r="S1" s="5" t="s">
-        <v>178</v>
+        <v>155</v>
       </c>
       <c r="T1" s="5" t="s">
-        <v>179</v>
+        <v>156</v>
       </c>
       <c r="U1" s="5" t="s">
-        <v>183</v>
+        <v>160</v>
       </c>
       <c r="V1" s="5" t="s">
-        <v>180</v>
+        <v>157</v>
       </c>
       <c r="W1" s="5" t="s">
-        <v>181</v>
+        <v>158</v>
       </c>
       <c r="X1" s="5" t="s">
-        <v>182</v>
+        <v>159</v>
       </c>
     </row>
     <row r="2" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
-        <v>225</v>
+        <v>201</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>64</v>
+        <v>42</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>66</v>
+        <v>44</v>
       </c>
       <c r="D2" s="7">
         <v>25</v>
@@ -3102,72 +2918,72 @@
         <v>18-25</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="G2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="T2" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="U2" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="V2" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="W2" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="H2" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="P2" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="Q2" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="R2" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="S2" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="T2" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="U2" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="V2" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="W2" s="2" t="s">
-        <v>87</v>
-      </c>
       <c r="X2" s="2" t="s">
-        <v>134</v>
+        <v>112</v>
       </c>
     </row>
     <row r="3" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="2" t="s">
-        <v>226</v>
+        <v>202</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>64</v>
+        <v>42</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>66</v>
+        <v>44</v>
       </c>
       <c r="D3" s="6">
         <v>24</v>
@@ -3177,68 +2993,68 @@
         <v>18-25</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>81</v>
+        <v>59</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>68</v>
+        <v>46</v>
       </c>
       <c r="H3" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="I3" s="2" t="s">
-        <v>91</v>
-      </c>
       <c r="J3" s="2" t="s">
-        <v>82</v>
+        <v>60</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
       <c r="N3" s="2" t="s">
-        <v>72</v>
+        <v>50</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>114</v>
+        <v>92</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>74</v>
+        <v>52</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>86</v>
+        <v>64</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>76</v>
+        <v>54</v>
       </c>
       <c r="S3" s="2" t="s">
-        <v>76</v>
+        <v>54</v>
       </c>
       <c r="T3" s="2" t="s">
-        <v>76</v>
+        <v>54</v>
       </c>
       <c r="U3" s="2" t="s">
-        <v>76</v>
+        <v>54</v>
       </c>
       <c r="V3" s="2" t="s">
-        <v>76</v>
+        <v>54</v>
       </c>
       <c r="W3" s="2" t="s">
-        <v>97</v>
+        <v>75</v>
       </c>
       <c r="X3" s="2" t="s">
-        <v>103</v>
+        <v>81</v>
       </c>
     </row>
     <row r="4" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="2" t="s">
-        <v>227</v>
+        <v>203</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>64</v>
+        <v>42</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>66</v>
+        <v>44</v>
       </c>
       <c r="D4" s="6">
         <v>25</v>
@@ -3248,68 +3064,68 @@
         <v>18-25</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>68</v>
+        <v>46</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>69</v>
+        <v>47</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>70</v>
+        <v>48</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>71</v>
+        <v>49</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
       <c r="N4" s="2" t="s">
-        <v>72</v>
+        <v>50</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>73</v>
+        <v>51</v>
       </c>
       <c r="P4" s="2" t="s">
-        <v>74</v>
+        <v>52</v>
       </c>
       <c r="Q4" s="2" t="s">
-        <v>75</v>
+        <v>53</v>
       </c>
       <c r="R4" s="2" t="s">
-        <v>76</v>
+        <v>54</v>
       </c>
       <c r="S4" s="2" t="s">
-        <v>77</v>
+        <v>55</v>
       </c>
       <c r="T4" s="2" t="s">
-        <v>77</v>
+        <v>55</v>
       </c>
       <c r="U4" s="2" t="s">
-        <v>76</v>
+        <v>54</v>
       </c>
       <c r="V4" s="2" t="s">
-        <v>77</v>
+        <v>55</v>
       </c>
       <c r="W4" s="2" t="s">
-        <v>78</v>
+        <v>56</v>
       </c>
       <c r="X4" s="2" t="s">
-        <v>79</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="2" t="s">
-        <v>228</v>
+        <v>204</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>100</v>
+        <v>78</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>66</v>
+        <v>44</v>
       </c>
       <c r="D5" s="6">
         <v>21</v>
@@ -3319,68 +3135,68 @@
         <v>18-25</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>81</v>
+        <v>59</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>68</v>
+        <v>46</v>
       </c>
       <c r="H5" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="I5" s="2" t="s">
-        <v>91</v>
-      </c>
       <c r="J5" s="2" t="s">
-        <v>92</v>
+        <v>70</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="L5" s="2"/>
       <c r="M5" s="2"/>
       <c r="N5" s="2" t="s">
-        <v>101</v>
+        <v>79</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>102</v>
+        <v>80</v>
       </c>
       <c r="P5" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q5" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="Q5" s="2" t="s">
-        <v>96</v>
-      </c>
       <c r="R5" s="2" t="s">
-        <v>76</v>
+        <v>54</v>
       </c>
       <c r="S5" s="2" t="s">
-        <v>77</v>
+        <v>55</v>
       </c>
       <c r="T5" s="2" t="s">
-        <v>77</v>
+        <v>55</v>
       </c>
       <c r="U5" s="2" t="s">
-        <v>77</v>
+        <v>55</v>
       </c>
       <c r="V5" s="2" t="s">
-        <v>76</v>
+        <v>54</v>
       </c>
       <c r="W5" s="2" t="s">
-        <v>97</v>
+        <v>75</v>
       </c>
       <c r="X5" s="2" t="s">
-        <v>103</v>
+        <v>81</v>
       </c>
     </row>
     <row r="6" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="2" t="s">
-        <v>229</v>
+        <v>205</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>100</v>
+        <v>78</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>66</v>
+        <v>44</v>
       </c>
       <c r="D6" s="6">
         <v>24</v>
@@ -3390,68 +3206,68 @@
         <v>18-25</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>81</v>
+        <v>59</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>63</v>
+        <v>41</v>
       </c>
       <c r="H6" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="I6" s="2" t="s">
-        <v>91</v>
-      </c>
       <c r="J6" s="2" t="s">
-        <v>71</v>
+        <v>49</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
       <c r="N6" s="2" t="s">
-        <v>72</v>
+        <v>50</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>105</v>
+        <v>83</v>
       </c>
       <c r="P6" s="2" t="s">
-        <v>106</v>
+        <v>84</v>
       </c>
       <c r="Q6" s="2" t="s">
-        <v>107</v>
+        <v>85</v>
       </c>
       <c r="R6" s="2" t="s">
-        <v>76</v>
+        <v>54</v>
       </c>
       <c r="S6" s="2" t="s">
-        <v>76</v>
+        <v>54</v>
       </c>
       <c r="T6" s="2" t="s">
-        <v>77</v>
+        <v>55</v>
       </c>
       <c r="U6" s="2" t="s">
-        <v>76</v>
+        <v>54</v>
       </c>
       <c r="V6" s="2" t="s">
-        <v>76</v>
+        <v>54</v>
       </c>
       <c r="W6" s="2" t="s">
-        <v>78</v>
+        <v>56</v>
       </c>
       <c r="X6" s="2" t="s">
-        <v>108</v>
+        <v>86</v>
       </c>
     </row>
     <row r="7" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="2" t="s">
-        <v>230</v>
+        <v>206</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>118</v>
+        <v>96</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>66</v>
+        <v>44</v>
       </c>
       <c r="D7" s="6">
         <v>22</v>
@@ -3461,72 +3277,72 @@
         <v>18-25</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="G7" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="O7" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="P7" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q7" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="R7" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="S7" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="T7" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="U7" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="V7" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="W7" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="H7" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="L7" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="M7" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="N7" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="O7" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="P7" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="Q7" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="R7" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="S7" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="T7" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="U7" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="V7" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="W7" s="2" t="s">
-        <v>87</v>
-      </c>
       <c r="X7" s="2" t="s">
-        <v>146</v>
+        <v>124</v>
       </c>
     </row>
     <row r="8" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="2" t="s">
-        <v>231</v>
+        <v>207</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>118</v>
+        <v>96</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>66</v>
+        <v>44</v>
       </c>
       <c r="D8" s="6">
         <v>24</v>
@@ -3536,72 +3352,72 @@
         <v>18-25</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>81</v>
+        <v>59</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>93</v>
+        <v>71</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>90</v>
+        <v>68</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>91</v>
+        <v>69</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>92</v>
+        <v>70</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>81</v>
+        <v>59</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>93</v>
+        <v>71</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>68</v>
+        <v>46</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>116</v>
+        <v>94</v>
       </c>
       <c r="O8" s="2" t="s">
-        <v>105</v>
+        <v>83</v>
       </c>
       <c r="P8" s="2" t="s">
-        <v>106</v>
+        <v>84</v>
       </c>
       <c r="Q8" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="R8" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="S8" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="T8" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="U8" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="V8" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="W8" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="R8" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="S8" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="T8" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="U8" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="V8" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="W8" s="2" t="s">
-        <v>97</v>
-      </c>
       <c r="X8" s="2" t="s">
-        <v>146</v>
+        <v>124</v>
       </c>
     </row>
     <row r="9" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="2" t="s">
-        <v>232</v>
+        <v>208</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>118</v>
+        <v>96</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>66</v>
+        <v>44</v>
       </c>
       <c r="D9" s="6">
         <v>25</v>
@@ -3611,68 +3427,68 @@
         <v>18-25</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>81</v>
+        <v>59</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>128</v>
+        <v>106</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>90</v>
+        <v>68</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>91</v>
+        <v>69</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>91</v>
+        <v>69</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
       <c r="N9" s="2" t="s">
-        <v>112</v>
+        <v>90</v>
       </c>
       <c r="O9" s="2" t="s">
-        <v>127</v>
+        <v>105</v>
       </c>
       <c r="P9" s="2" t="s">
-        <v>74</v>
+        <v>52</v>
       </c>
       <c r="Q9" s="2" t="s">
-        <v>107</v>
+        <v>85</v>
       </c>
       <c r="R9" s="2" t="s">
-        <v>76</v>
+        <v>54</v>
       </c>
       <c r="S9" s="2" t="s">
-        <v>76</v>
+        <v>54</v>
       </c>
       <c r="T9" s="2" t="s">
-        <v>76</v>
+        <v>54</v>
       </c>
       <c r="U9" s="2" t="s">
-        <v>76</v>
+        <v>54</v>
       </c>
       <c r="V9" s="2" t="s">
-        <v>76</v>
+        <v>54</v>
       </c>
       <c r="W9" s="2" t="s">
-        <v>78</v>
+        <v>56</v>
       </c>
       <c r="X9" s="2" t="s">
-        <v>103</v>
+        <v>81</v>
       </c>
     </row>
     <row r="10" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="2" t="s">
-        <v>233</v>
+        <v>209</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>64</v>
+        <v>42</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>66</v>
+        <v>44</v>
       </c>
       <c r="D10" s="6">
         <v>45</v>
@@ -3682,72 +3498,72 @@
         <v>26-65</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="G10" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="M10" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="N10" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="O10" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="P10" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q10" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="R10" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="S10" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="T10" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="U10" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="V10" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="W10" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="H10" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="I10" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="J10" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="K10" s="2" t="s">
+      <c r="X10" s="2" t="s">
         <v>81</v>
-      </c>
-      <c r="L10" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="M10" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="N10" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="O10" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="P10" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="Q10" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="R10" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="S10" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="T10" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="U10" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="V10" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="W10" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="X10" s="2" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="11" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="2" t="s">
-        <v>234</v>
+        <v>210</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>64</v>
+        <v>42</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>66</v>
+        <v>44</v>
       </c>
       <c r="D11" s="6">
         <v>58</v>
@@ -3757,72 +3573,72 @@
         <v>26-65</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>81</v>
+        <v>59</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>63</v>
+        <v>41</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>90</v>
+        <v>68</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>91</v>
+        <v>69</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>92</v>
+        <v>70</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>81</v>
+        <v>59</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>93</v>
+        <v>71</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>94</v>
+        <v>72</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>72</v>
+        <v>50</v>
       </c>
       <c r="O11" s="2" t="s">
-        <v>84</v>
+        <v>62</v>
       </c>
       <c r="P11" s="2" t="s">
-        <v>95</v>
+        <v>73</v>
       </c>
       <c r="Q11" s="2" t="s">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="R11" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="S11" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="T11" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="U11" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="V11" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="W11" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="X11" s="2" t="s">
         <v>76</v>
-      </c>
-      <c r="S11" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="T11" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="U11" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="V11" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="W11" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="X11" s="2" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="12" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="2" t="s">
-        <v>235</v>
+        <v>211</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>64</v>
+        <v>42</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>66</v>
+        <v>44</v>
       </c>
       <c r="D12" s="6">
         <v>32</v>
@@ -3832,68 +3648,68 @@
         <v>26-65</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>81</v>
+        <v>59</v>
       </c>
       <c r="G12" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="H12" s="2" t="s">
-        <v>90</v>
-      </c>
       <c r="I12" s="2" t="s">
-        <v>91</v>
+        <v>69</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>92</v>
+        <v>70</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="L12" s="2"/>
       <c r="M12" s="2"/>
       <c r="N12" s="2" t="s">
-        <v>112</v>
+        <v>90</v>
       </c>
       <c r="O12" s="2" t="s">
-        <v>127</v>
+        <v>105</v>
       </c>
       <c r="P12" s="2" t="s">
-        <v>95</v>
+        <v>73</v>
       </c>
       <c r="Q12" s="2" t="s">
-        <v>75</v>
+        <v>53</v>
       </c>
       <c r="R12" s="2" t="s">
-        <v>76</v>
+        <v>54</v>
       </c>
       <c r="S12" s="2" t="s">
-        <v>77</v>
+        <v>55</v>
       </c>
       <c r="T12" s="2" t="s">
-        <v>76</v>
+        <v>54</v>
       </c>
       <c r="U12" s="2" t="s">
-        <v>76</v>
+        <v>54</v>
       </c>
       <c r="V12" s="2" t="s">
-        <v>76</v>
+        <v>54</v>
       </c>
       <c r="W12" s="2" t="s">
-        <v>78</v>
+        <v>56</v>
       </c>
       <c r="X12" s="2" t="s">
-        <v>103</v>
+        <v>81</v>
       </c>
     </row>
     <row r="13" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="2" t="s">
-        <v>236</v>
+        <v>212</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>100</v>
+        <v>78</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>66</v>
+        <v>44</v>
       </c>
       <c r="D13" s="6">
         <v>38</v>
@@ -3903,72 +3719,72 @@
         <v>26-65</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="G13" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="M13" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="N13" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="O13" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="P13" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q13" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="R13" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="S13" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="T13" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="U13" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="V13" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="W13" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="H13" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="I13" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="J13" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="K13" s="2" t="s">
+      <c r="X13" s="2" t="s">
         <v>81</v>
-      </c>
-      <c r="L13" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="M13" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="N13" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="O13" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="P13" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="Q13" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="R13" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="S13" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="T13" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="U13" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="V13" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="W13" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="X13" s="2" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="14" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="2" t="s">
-        <v>237</v>
+        <v>213</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>100</v>
+        <v>78</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>66</v>
+        <v>44</v>
       </c>
       <c r="D14" s="6">
         <v>40</v>
@@ -3978,72 +3794,72 @@
         <v>26-65</v>
       </c>
       <c r="F14" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="M14" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="G14" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="H14" s="2" t="s">
+      <c r="N14" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="I14" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="J14" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="K14" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="L14" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="M14" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="N14" s="2" t="s">
-        <v>112</v>
-      </c>
       <c r="O14" s="2" t="s">
-        <v>102</v>
+        <v>80</v>
       </c>
       <c r="P14" s="2" t="s">
-        <v>95</v>
+        <v>73</v>
       </c>
       <c r="Q14" s="2" t="s">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="R14" s="2" t="s">
-        <v>76</v>
+        <v>54</v>
       </c>
       <c r="S14" s="2" t="s">
-        <v>77</v>
+        <v>55</v>
       </c>
       <c r="T14" s="2" t="s">
-        <v>77</v>
+        <v>55</v>
       </c>
       <c r="U14" s="2" t="s">
-        <v>76</v>
+        <v>54</v>
       </c>
       <c r="V14" s="2" t="s">
-        <v>76</v>
+        <v>54</v>
       </c>
       <c r="W14" s="2" t="s">
-        <v>97</v>
+        <v>75</v>
       </c>
       <c r="X14" s="2" t="s">
-        <v>113</v>
+        <v>91</v>
       </c>
     </row>
     <row r="15" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="2" t="s">
-        <v>238</v>
+        <v>214</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>100</v>
+        <v>78</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>66</v>
+        <v>44</v>
       </c>
       <c r="D15" s="6">
         <v>47</v>
@@ -4053,72 +3869,72 @@
         <v>26-65</v>
       </c>
       <c r="F15" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="M15" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="N15" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="O15" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="P15" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q15" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="R15" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="S15" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="T15" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="U15" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="V15" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="W15" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="X15" s="2" t="s">
         <v>81</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="H15" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="I15" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="J15" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="K15" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="L15" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="M15" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="N15" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="O15" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="P15" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q15" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="R15" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="S15" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="T15" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="U15" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="V15" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="W15" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="X15" s="2" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="16" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="2" t="s">
-        <v>239</v>
+        <v>215</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>118</v>
+        <v>96</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>66</v>
+        <v>44</v>
       </c>
       <c r="D16" s="6">
         <v>35</v>
@@ -4128,72 +3944,72 @@
         <v>26-65</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>93</v>
+        <v>71</v>
       </c>
       <c r="H16" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="M16" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="N16" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="I16" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="J16" s="2" t="s">
+      <c r="O16" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="P16" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q16" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="K16" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="L16" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="M16" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="N16" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="O16" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="P16" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="Q16" s="2" t="s">
-        <v>133</v>
-      </c>
       <c r="R16" s="2" t="s">
-        <v>77</v>
+        <v>55</v>
       </c>
       <c r="S16" s="2" t="s">
-        <v>77</v>
+        <v>55</v>
       </c>
       <c r="T16" s="2" t="s">
-        <v>77</v>
+        <v>55</v>
       </c>
       <c r="U16" s="2" t="s">
-        <v>77</v>
+        <v>55</v>
       </c>
       <c r="V16" s="2" t="s">
-        <v>77</v>
+        <v>55</v>
       </c>
       <c r="W16" s="2" t="s">
-        <v>87</v>
+        <v>65</v>
       </c>
       <c r="X16" s="2" t="s">
-        <v>146</v>
+        <v>124</v>
       </c>
     </row>
     <row r="17" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="2" t="s">
-        <v>240</v>
+        <v>216</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>118</v>
+        <v>96</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>66</v>
+        <v>44</v>
       </c>
       <c r="D17" s="6">
         <v>39</v>
@@ -4203,72 +4019,72 @@
         <v>26-65</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>93</v>
+        <v>71</v>
       </c>
       <c r="H17" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="L17" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="M17" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="N17" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="I17" s="2" t="s">
+      <c r="O17" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="J17" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="K17" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="L17" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="M17" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="N17" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="O17" s="2" t="s">
-        <v>114</v>
-      </c>
       <c r="P17" s="2" t="s">
-        <v>131</v>
+        <v>109</v>
       </c>
       <c r="Q17" s="2" t="s">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="R17" s="2" t="s">
-        <v>76</v>
+        <v>54</v>
       </c>
       <c r="S17" s="2" t="s">
-        <v>77</v>
+        <v>55</v>
       </c>
       <c r="T17" s="2" t="s">
-        <v>77</v>
+        <v>55</v>
       </c>
       <c r="U17" s="2" t="s">
-        <v>77</v>
+        <v>55</v>
       </c>
       <c r="V17" s="2" t="s">
-        <v>77</v>
+        <v>55</v>
       </c>
       <c r="W17" s="2" t="s">
-        <v>97</v>
+        <v>75</v>
       </c>
       <c r="X17" s="2" t="s">
-        <v>142</v>
+        <v>120</v>
       </c>
     </row>
     <row r="18" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="2" t="s">
-        <v>241</v>
+        <v>217</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>118</v>
+        <v>96</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>66</v>
+        <v>44</v>
       </c>
       <c r="D18" s="6">
         <v>34</v>
@@ -4278,72 +4094,72 @@
         <v>26-65</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>93</v>
+        <v>71</v>
       </c>
       <c r="H18" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="L18" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="M18" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="N18" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="I18" s="2" t="s">
+      <c r="O18" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="P18" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q18" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="J18" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="K18" s="2" t="s">
+      <c r="R18" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="S18" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="T18" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="U18" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="V18" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="W18" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="X18" s="2" t="s">
         <v>81</v>
-      </c>
-      <c r="L18" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="M18" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="N18" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="O18" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="P18" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="Q18" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="R18" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="S18" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="T18" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="U18" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="V18" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="W18" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="X18" s="2" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="19" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="2" t="s">
-        <v>242</v>
+        <v>218</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>118</v>
+        <v>96</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>66</v>
+        <v>44</v>
       </c>
       <c r="D19" s="6">
         <v>31</v>
@@ -4353,72 +4169,72 @@
         <v>26-65</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>65</v>
+        <v>43</v>
       </c>
       <c r="H19" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="K19" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="L19" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="M19" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="N19" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="I19" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="J19" s="2" t="s">
+      <c r="O19" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="P19" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q19" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="K19" s="2" t="s">
+      <c r="R19" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="S19" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="T19" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="U19" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="V19" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="W19" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="X19" s="2" t="s">
         <v>81</v>
-      </c>
-      <c r="L19" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="M19" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="N19" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="O19" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="P19" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="Q19" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="R19" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="S19" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="T19" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="U19" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="V19" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="W19" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="X19" s="2" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="20" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="2" t="s">
-        <v>243</v>
+        <v>219</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>118</v>
+        <v>96</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>66</v>
+        <v>44</v>
       </c>
       <c r="D20" s="6">
         <v>46</v>
@@ -4428,72 +4244,72 @@
         <v>26-65</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>81</v>
+        <v>59</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>63</v>
+        <v>41</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>90</v>
+        <v>68</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>91</v>
+        <v>69</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>92</v>
+        <v>70</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>81</v>
+        <v>59</v>
       </c>
       <c r="L20" s="2" t="s">
-        <v>68</v>
+        <v>46</v>
       </c>
       <c r="M20" s="2" t="s">
-        <v>119</v>
+        <v>97</v>
       </c>
       <c r="N20" s="2" t="s">
-        <v>72</v>
+        <v>50</v>
       </c>
       <c r="O20" s="2" t="s">
-        <v>120</v>
+        <v>98</v>
       </c>
       <c r="P20" s="2" t="s">
-        <v>74</v>
+        <v>52</v>
       </c>
       <c r="Q20" s="2" t="s">
-        <v>75</v>
+        <v>53</v>
       </c>
       <c r="R20" s="2" t="s">
-        <v>76</v>
+        <v>54</v>
       </c>
       <c r="S20" s="2" t="s">
-        <v>77</v>
+        <v>55</v>
       </c>
       <c r="T20" s="2" t="s">
-        <v>77</v>
+        <v>55</v>
       </c>
       <c r="U20" s="2" t="s">
-        <v>76</v>
+        <v>54</v>
       </c>
       <c r="V20" s="2" t="s">
-        <v>76</v>
+        <v>54</v>
       </c>
       <c r="W20" s="2" t="s">
-        <v>78</v>
+        <v>56</v>
       </c>
       <c r="X20" s="2" t="s">
-        <v>121</v>
+        <v>99</v>
       </c>
     </row>
     <row r="21" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="2" t="s">
-        <v>244</v>
+        <v>220</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>64</v>
+        <v>42</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>66</v>
+        <v>44</v>
       </c>
       <c r="D21" s="6">
         <v>78</v>
@@ -4503,68 +4319,68 @@
         <v>&gt;65</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>93</v>
+        <v>71</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>109</v>
+        <v>87</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>92</v>
+        <v>70</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>71</v>
+        <v>49</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="L21" s="2"/>
       <c r="M21" s="2"/>
       <c r="N21" s="2" t="s">
-        <v>72</v>
+        <v>50</v>
       </c>
       <c r="O21" s="2" t="s">
-        <v>84</v>
+        <v>62</v>
       </c>
       <c r="P21" s="2" t="s">
-        <v>74</v>
+        <v>52</v>
       </c>
       <c r="Q21" s="2" t="s">
-        <v>86</v>
+        <v>64</v>
       </c>
       <c r="R21" s="2" t="s">
-        <v>76</v>
+        <v>54</v>
       </c>
       <c r="S21" s="2" t="s">
-        <v>77</v>
+        <v>55</v>
       </c>
       <c r="T21" s="2" t="s">
-        <v>77</v>
+        <v>55</v>
       </c>
       <c r="U21" s="2" t="s">
-        <v>77</v>
+        <v>55</v>
       </c>
       <c r="V21" s="2" t="s">
-        <v>77</v>
+        <v>55</v>
       </c>
       <c r="W21" s="2" t="s">
-        <v>97</v>
+        <v>75</v>
       </c>
       <c r="X21" s="2" t="s">
-        <v>110</v>
+        <v>88</v>
       </c>
     </row>
     <row r="22" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="2" t="s">
-        <v>245</v>
+        <v>221</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>64</v>
+        <v>42</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>66</v>
+        <v>44</v>
       </c>
       <c r="D22" s="6">
         <v>66</v>
@@ -4574,72 +4390,72 @@
         <v>&gt;65</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>93</v>
+        <v>71</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>123</v>
+        <v>101</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>92</v>
+        <v>70</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>82</v>
+        <v>60</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>81</v>
+        <v>59</v>
       </c>
       <c r="L22" s="2" t="s">
-        <v>93</v>
+        <v>71</v>
       </c>
       <c r="M22" s="2" t="s">
-        <v>124</v>
+        <v>102</v>
       </c>
       <c r="N22" s="2" t="s">
-        <v>72</v>
+        <v>50</v>
       </c>
       <c r="O22" s="2" t="s">
-        <v>84</v>
+        <v>62</v>
       </c>
       <c r="P22" s="2" t="s">
-        <v>125</v>
+        <v>103</v>
       </c>
       <c r="Q22" s="2" t="s">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="R22" s="2" t="s">
-        <v>77</v>
+        <v>55</v>
       </c>
       <c r="S22" s="2" t="s">
-        <v>77</v>
+        <v>55</v>
       </c>
       <c r="T22" s="2" t="s">
-        <v>77</v>
+        <v>55</v>
       </c>
       <c r="U22" s="2" t="s">
-        <v>76</v>
+        <v>54</v>
       </c>
       <c r="V22" s="2" t="s">
-        <v>76</v>
+        <v>54</v>
       </c>
       <c r="W22" s="2" t="s">
-        <v>97</v>
+        <v>75</v>
       </c>
       <c r="X22" s="2" t="s">
-        <v>126</v>
+        <v>104</v>
       </c>
     </row>
     <row r="23" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="2" t="s">
-        <v>246</v>
+        <v>222</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>64</v>
+        <v>42</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>66</v>
+        <v>44</v>
       </c>
       <c r="D23" s="6">
         <v>65</v>
@@ -4649,72 +4465,72 @@
         <v>26-65</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>81</v>
+        <v>59</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>68</v>
+        <v>46</v>
       </c>
       <c r="H23" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="K23" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="L23" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="M23" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="I23" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="J23" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="K23" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="L23" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="M23" s="2" t="s">
-        <v>145</v>
-      </c>
       <c r="N23" s="2" t="s">
-        <v>72</v>
+        <v>50</v>
       </c>
       <c r="O23" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="P23" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="P23" s="2" t="s">
-        <v>95</v>
-      </c>
       <c r="Q23" s="2" t="s">
-        <v>107</v>
+        <v>85</v>
       </c>
       <c r="R23" s="2" t="s">
-        <v>76</v>
+        <v>54</v>
       </c>
       <c r="S23" s="2" t="s">
-        <v>76</v>
+        <v>54</v>
       </c>
       <c r="T23" s="2" t="s">
-        <v>76</v>
+        <v>54</v>
       </c>
       <c r="U23" s="2" t="s">
-        <v>76</v>
+        <v>54</v>
       </c>
       <c r="V23" s="2" t="s">
-        <v>76</v>
+        <v>54</v>
       </c>
       <c r="W23" s="2" t="s">
-        <v>78</v>
+        <v>56</v>
       </c>
       <c r="X23" s="2" t="s">
-        <v>146</v>
+        <v>124</v>
       </c>
     </row>
     <row r="24" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="2" t="s">
-        <v>247</v>
+        <v>223</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>100</v>
+        <v>78</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>66</v>
+        <v>44</v>
       </c>
       <c r="D24" s="6">
         <v>66</v>
@@ -4724,72 +4540,72 @@
         <v>&gt;65</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="G24" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="J24" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K24" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="L24" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="M24" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="N24" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="O24" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="P24" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q24" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="R24" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="S24" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="T24" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="U24" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="V24" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="W24" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="H24" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="I24" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="J24" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="K24" s="2" t="s">
+      <c r="X24" s="2" t="s">
         <v>81</v>
-      </c>
-      <c r="L24" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="M24" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="N24" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="O24" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="P24" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="Q24" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="R24" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="S24" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="T24" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="U24" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="V24" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="W24" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="X24" s="2" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="25" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A25" s="2" t="s">
-        <v>248</v>
+        <v>224</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>100</v>
+        <v>78</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>66</v>
+        <v>44</v>
       </c>
       <c r="D25" s="6">
         <v>66</v>
@@ -4799,68 +4615,68 @@
         <v>&gt;65</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>81</v>
+        <v>59</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>93</v>
+        <v>71</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>123</v>
+        <v>101</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>91</v>
+        <v>69</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>82</v>
+        <v>60</v>
       </c>
       <c r="K25" s="2" t="s">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="L25" s="2"/>
       <c r="M25" s="2"/>
       <c r="N25" s="2" t="s">
-        <v>72</v>
+        <v>50</v>
       </c>
       <c r="O25" s="2" t="s">
-        <v>84</v>
+        <v>62</v>
       </c>
       <c r="P25" s="2" t="s">
-        <v>131</v>
+        <v>109</v>
       </c>
       <c r="Q25" s="2" t="s">
-        <v>133</v>
+        <v>111</v>
       </c>
       <c r="R25" s="2" t="s">
-        <v>76</v>
+        <v>54</v>
       </c>
       <c r="S25" s="2" t="s">
-        <v>76</v>
+        <v>54</v>
       </c>
       <c r="T25" s="2" t="s">
-        <v>76</v>
+        <v>54</v>
       </c>
       <c r="U25" s="2" t="s">
-        <v>76</v>
+        <v>54</v>
       </c>
       <c r="V25" s="2" t="s">
-        <v>76</v>
+        <v>54</v>
       </c>
       <c r="W25" s="2" t="s">
-        <v>97</v>
+        <v>75</v>
       </c>
       <c r="X25" s="2" t="s">
-        <v>103</v>
+        <v>81</v>
       </c>
     </row>
     <row r="26" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A26" s="2" t="s">
-        <v>249</v>
+        <v>225</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>118</v>
+        <v>96</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>66</v>
+        <v>44</v>
       </c>
       <c r="D26" s="6">
         <v>66</v>
@@ -4870,68 +4686,68 @@
         <v>&gt;65</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>93</v>
+        <v>71</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>123</v>
+        <v>101</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>92</v>
+        <v>70</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>111</v>
+        <v>89</v>
       </c>
       <c r="K26" s="2" t="s">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="L26" s="2"/>
       <c r="M26" s="2"/>
       <c r="N26" s="2" t="s">
-        <v>72</v>
+        <v>50</v>
       </c>
       <c r="O26" s="2" t="s">
-        <v>114</v>
+        <v>92</v>
       </c>
       <c r="P26" s="2" t="s">
-        <v>95</v>
+        <v>73</v>
       </c>
       <c r="Q26" s="2" t="s">
-        <v>107</v>
+        <v>85</v>
       </c>
       <c r="R26" s="2" t="s">
-        <v>76</v>
+        <v>54</v>
       </c>
       <c r="S26" s="2" t="s">
-        <v>76</v>
+        <v>54</v>
       </c>
       <c r="T26" s="2" t="s">
-        <v>76</v>
+        <v>54</v>
       </c>
       <c r="U26" s="2" t="s">
-        <v>76</v>
+        <v>54</v>
       </c>
       <c r="V26" s="2" t="s">
-        <v>76</v>
+        <v>54</v>
       </c>
       <c r="W26" s="2" t="s">
-        <v>78</v>
+        <v>56</v>
       </c>
       <c r="X26" s="2" t="s">
-        <v>103</v>
+        <v>81</v>
       </c>
     </row>
     <row r="27" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="2" t="s">
-        <v>250</v>
+        <v>226</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>64</v>
+        <v>42</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>80</v>
+        <v>58</v>
       </c>
       <c r="D27" s="6">
         <v>25</v>
@@ -4941,68 +4757,68 @@
         <v>18-25</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>81</v>
+        <v>59</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>93</v>
+        <v>71</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>90</v>
+        <v>68</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>91</v>
+        <v>69</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>92</v>
+        <v>70</v>
       </c>
       <c r="K27" s="2" t="s">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="L27" s="2"/>
       <c r="M27" s="2"/>
       <c r="N27" s="2" t="s">
-        <v>101</v>
+        <v>79</v>
       </c>
       <c r="O27" s="2" t="s">
-        <v>120</v>
+        <v>98</v>
       </c>
       <c r="P27" s="2" t="s">
-        <v>74</v>
+        <v>52</v>
       </c>
       <c r="Q27" s="2" t="s">
-        <v>86</v>
+        <v>64</v>
       </c>
       <c r="R27" s="2" t="s">
-        <v>76</v>
+        <v>54</v>
       </c>
       <c r="S27" s="2" t="s">
-        <v>77</v>
+        <v>55</v>
       </c>
       <c r="T27" s="2" t="s">
-        <v>77</v>
+        <v>55</v>
       </c>
       <c r="U27" s="2" t="s">
-        <v>76</v>
+        <v>54</v>
       </c>
       <c r="V27" s="2" t="s">
-        <v>76</v>
+        <v>54</v>
       </c>
       <c r="W27" s="2" t="s">
-        <v>97</v>
+        <v>75</v>
       </c>
       <c r="X27" s="2" t="s">
-        <v>103</v>
+        <v>81</v>
       </c>
     </row>
     <row r="28" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="2" t="s">
-        <v>251</v>
+        <v>227</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>64</v>
+        <v>42</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>80</v>
+        <v>58</v>
       </c>
       <c r="D28" s="6">
         <v>23</v>
@@ -5012,68 +4828,68 @@
         <v>18-25</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>81</v>
+        <v>59</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>68</v>
+        <v>46</v>
       </c>
       <c r="H28" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J28" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="I28" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="J28" s="2" t="s">
-        <v>91</v>
-      </c>
       <c r="K28" s="2" t="s">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="L28" s="2"/>
       <c r="M28" s="2"/>
       <c r="N28" s="2" t="s">
-        <v>72</v>
+        <v>50</v>
       </c>
       <c r="O28" s="2" t="s">
-        <v>102</v>
+        <v>80</v>
       </c>
       <c r="P28" s="2" t="s">
-        <v>95</v>
+        <v>73</v>
       </c>
       <c r="Q28" s="2" t="s">
-        <v>75</v>
+        <v>53</v>
       </c>
       <c r="R28" s="2" t="s">
-        <v>76</v>
+        <v>54</v>
       </c>
       <c r="S28" s="2" t="s">
-        <v>77</v>
+        <v>55</v>
       </c>
       <c r="T28" s="2" t="s">
-        <v>77</v>
+        <v>55</v>
       </c>
       <c r="U28" s="2" t="s">
-        <v>76</v>
+        <v>54</v>
       </c>
       <c r="V28" s="2" t="s">
-        <v>76</v>
+        <v>54</v>
       </c>
       <c r="W28" s="2" t="s">
-        <v>78</v>
+        <v>56</v>
       </c>
       <c r="X28" s="2" t="s">
-        <v>104</v>
+        <v>82</v>
       </c>
     </row>
     <row r="29" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="2" t="s">
-        <v>252</v>
+        <v>228</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>100</v>
+        <v>78</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>80</v>
+        <v>58</v>
       </c>
       <c r="D29" s="6">
         <v>24</v>
@@ -5083,68 +4899,68 @@
         <v>18-25</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>81</v>
+        <v>59</v>
       </c>
       <c r="G29" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="H29" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="I29" s="2" t="s">
-        <v>115</v>
-      </c>
       <c r="J29" s="2" t="s">
-        <v>71</v>
+        <v>49</v>
       </c>
       <c r="K29" s="2" t="s">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="L29" s="2"/>
       <c r="M29" s="2"/>
       <c r="N29" s="2" t="s">
-        <v>116</v>
+        <v>94</v>
       </c>
       <c r="O29" s="2" t="s">
-        <v>102</v>
+        <v>80</v>
       </c>
       <c r="P29" s="2" t="s">
-        <v>74</v>
+        <v>52</v>
       </c>
       <c r="Q29" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="R29" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="S29" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="T29" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="U29" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="V29" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="W29" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="R29" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="S29" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="T29" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="U29" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="V29" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="W29" s="2" t="s">
-        <v>97</v>
-      </c>
       <c r="X29" s="2" t="s">
-        <v>117</v>
+        <v>95</v>
       </c>
     </row>
     <row r="30" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="2" t="s">
-        <v>253</v>
+        <v>229</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>100</v>
+        <v>78</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>80</v>
+        <v>58</v>
       </c>
       <c r="D30" s="6">
         <v>25</v>
@@ -5154,68 +4970,68 @@
         <v>18-25</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>81</v>
+        <v>59</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>99</v>
+        <v>77</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>90</v>
+        <v>68</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>91</v>
+        <v>69</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>92</v>
+        <v>70</v>
       </c>
       <c r="K30" s="2" t="s">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="L30" s="2"/>
       <c r="M30" s="2"/>
       <c r="N30" s="2" t="s">
-        <v>72</v>
+        <v>50</v>
       </c>
       <c r="O30" s="2" t="s">
-        <v>127</v>
+        <v>105</v>
       </c>
       <c r="P30" s="2" t="s">
-        <v>74</v>
+        <v>52</v>
       </c>
       <c r="Q30" s="2" t="s">
-        <v>75</v>
+        <v>53</v>
       </c>
       <c r="R30" s="2" t="s">
-        <v>76</v>
+        <v>54</v>
       </c>
       <c r="S30" s="2" t="s">
-        <v>77</v>
+        <v>55</v>
       </c>
       <c r="T30" s="2" t="s">
-        <v>77</v>
+        <v>55</v>
       </c>
       <c r="U30" s="2" t="s">
-        <v>76</v>
+        <v>54</v>
       </c>
       <c r="V30" s="2" t="s">
-        <v>76</v>
+        <v>54</v>
       </c>
       <c r="W30" s="2" t="s">
-        <v>78</v>
+        <v>56</v>
       </c>
       <c r="X30" s="2" t="s">
-        <v>103</v>
+        <v>81</v>
       </c>
     </row>
     <row r="31" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="2" t="s">
-        <v>254</v>
+        <v>230</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>118</v>
+        <v>96</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>80</v>
+        <v>58</v>
       </c>
       <c r="D31" s="6">
         <v>24</v>
@@ -5225,68 +5041,68 @@
         <v>18-25</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>81</v>
+        <v>59</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>93</v>
+        <v>71</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>69</v>
+        <v>47</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>92</v>
+        <v>70</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>71</v>
+        <v>49</v>
       </c>
       <c r="K31" s="2" t="s">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="L31" s="2"/>
       <c r="M31" s="2"/>
       <c r="N31" s="2" t="s">
-        <v>72</v>
+        <v>50</v>
       </c>
       <c r="O31" s="2" t="s">
-        <v>114</v>
+        <v>92</v>
       </c>
       <c r="P31" s="2" t="s">
-        <v>106</v>
+        <v>84</v>
       </c>
       <c r="Q31" s="2" t="s">
-        <v>86</v>
+        <v>64</v>
       </c>
       <c r="R31" s="2" t="s">
-        <v>76</v>
+        <v>54</v>
       </c>
       <c r="S31" s="2" t="s">
-        <v>77</v>
+        <v>55</v>
       </c>
       <c r="T31" s="2" t="s">
-        <v>76</v>
+        <v>54</v>
       </c>
       <c r="U31" s="2" t="s">
-        <v>77</v>
+        <v>55</v>
       </c>
       <c r="V31" s="2" t="s">
-        <v>76</v>
+        <v>54</v>
       </c>
       <c r="W31" s="2" t="s">
-        <v>97</v>
+        <v>75</v>
       </c>
       <c r="X31" s="2" t="s">
-        <v>135</v>
+        <v>113</v>
       </c>
     </row>
     <row r="32" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="2" t="s">
-        <v>255</v>
+        <v>231</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>118</v>
+        <v>96</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>80</v>
+        <v>58</v>
       </c>
       <c r="D32" s="6">
         <v>25</v>
@@ -5296,68 +5112,68 @@
         <v>18-25</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>81</v>
+        <v>59</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>128</v>
+        <v>106</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>90</v>
+        <v>68</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>91</v>
+        <v>69</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>92</v>
+        <v>70</v>
       </c>
       <c r="K32" s="2" t="s">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="L32" s="2"/>
       <c r="M32" s="2"/>
       <c r="N32" s="2" t="s">
-        <v>72</v>
+        <v>50</v>
       </c>
       <c r="O32" s="2" t="s">
-        <v>120</v>
+        <v>98</v>
       </c>
       <c r="P32" s="2" t="s">
-        <v>106</v>
+        <v>84</v>
       </c>
       <c r="Q32" s="2" t="s">
-        <v>75</v>
+        <v>53</v>
       </c>
       <c r="R32" s="2" t="s">
-        <v>76</v>
+        <v>54</v>
       </c>
       <c r="S32" s="2" t="s">
-        <v>77</v>
+        <v>55</v>
       </c>
       <c r="T32" s="2" t="s">
-        <v>77</v>
+        <v>55</v>
       </c>
       <c r="U32" s="2" t="s">
-        <v>76</v>
+        <v>54</v>
       </c>
       <c r="V32" s="2" t="s">
-        <v>77</v>
+        <v>55</v>
       </c>
       <c r="W32" s="2" t="s">
-        <v>78</v>
+        <v>56</v>
       </c>
       <c r="X32" s="2" t="s">
-        <v>103</v>
+        <v>81</v>
       </c>
     </row>
     <row r="33" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33" s="2" t="s">
-        <v>256</v>
+        <v>232</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>64</v>
+        <v>42</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>80</v>
+        <v>58</v>
       </c>
       <c r="D33" s="6">
         <v>27</v>
@@ -5367,68 +5183,68 @@
         <v>26-65</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>81</v>
+        <v>59</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>65</v>
+        <v>43</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>69</v>
+        <v>47</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>70</v>
+        <v>48</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>82</v>
+        <v>60</v>
       </c>
       <c r="K33" s="2" t="s">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="L33" s="2"/>
       <c r="M33" s="2"/>
       <c r="N33" s="2" t="s">
-        <v>83</v>
+        <v>61</v>
       </c>
       <c r="O33" s="2" t="s">
-        <v>84</v>
+        <v>62</v>
       </c>
       <c r="P33" s="2" t="s">
-        <v>85</v>
+        <v>63</v>
       </c>
       <c r="Q33" s="2" t="s">
-        <v>86</v>
+        <v>64</v>
       </c>
       <c r="R33" s="2" t="s">
-        <v>76</v>
+        <v>54</v>
       </c>
       <c r="S33" s="2" t="s">
-        <v>77</v>
+        <v>55</v>
       </c>
       <c r="T33" s="2" t="s">
-        <v>76</v>
+        <v>54</v>
       </c>
       <c r="U33" s="2" t="s">
-        <v>77</v>
+        <v>55</v>
       </c>
       <c r="V33" s="2" t="s">
-        <v>77</v>
+        <v>55</v>
       </c>
       <c r="W33" s="2" t="s">
-        <v>87</v>
+        <v>65</v>
       </c>
       <c r="X33" s="2" t="s">
-        <v>88</v>
+        <v>66</v>
       </c>
     </row>
     <row r="34" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34" s="2" t="s">
-        <v>257</v>
+        <v>233</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>64</v>
+        <v>42</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>80</v>
+        <v>58</v>
       </c>
       <c r="D34" s="6">
         <v>32</v>
@@ -5438,72 +5254,72 @@
         <v>26-65</v>
       </c>
       <c r="F34" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="I34" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="J34" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="K34" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="L34" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="M34" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="N34" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="O34" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="P34" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q34" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="R34" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="S34" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="T34" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="U34" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="V34" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="W34" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="X34" s="2" t="s">
         <v>81</v>
-      </c>
-      <c r="G34" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="H34" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="I34" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="J34" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="K34" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="L34" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="M34" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="N34" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="O34" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="P34" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="Q34" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="R34" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="S34" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="T34" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="U34" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="V34" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="W34" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="X34" s="2" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="35" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="2" t="s">
-        <v>258</v>
+        <v>234</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>64</v>
+        <v>42</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>80</v>
+        <v>58</v>
       </c>
       <c r="D35" s="6">
         <v>52</v>
@@ -5513,72 +5329,72 @@
         <v>26-65</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>65</v>
+        <v>43</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>90</v>
+        <v>68</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>82</v>
+        <v>60</v>
       </c>
       <c r="J35" s="2" t="s">
-        <v>71</v>
+        <v>49</v>
       </c>
       <c r="K35" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="L35" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="M35" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="N35" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="O35" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="P35" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q35" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="R35" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="S35" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="T35" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="U35" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="V35" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="W35" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="X35" s="2" t="s">
         <v>81</v>
-      </c>
-      <c r="L35" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="M35" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="N35" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="O35" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="P35" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="Q35" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="R35" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="S35" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="T35" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="U35" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="V35" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="W35" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="X35" s="2" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="36" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36" s="2" t="s">
-        <v>259</v>
+        <v>235</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>64</v>
+        <v>42</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>80</v>
+        <v>58</v>
       </c>
       <c r="D36" s="6">
         <v>59</v>
@@ -5588,68 +5404,68 @@
         <v>26-65</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>81</v>
+        <v>59</v>
       </c>
       <c r="G36" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="H36" s="2" t="s">
-        <v>90</v>
-      </c>
       <c r="I36" s="2" t="s">
-        <v>82</v>
+        <v>60</v>
       </c>
       <c r="J36" s="2" t="s">
-        <v>91</v>
+        <v>69</v>
       </c>
       <c r="K36" s="2" t="s">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="L36" s="2"/>
       <c r="M36" s="2"/>
       <c r="N36" s="2" t="s">
-        <v>72</v>
+        <v>50</v>
       </c>
       <c r="O36" s="2" t="s">
-        <v>102</v>
+        <v>80</v>
       </c>
       <c r="P36" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q36" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="Q36" s="2" t="s">
-        <v>96</v>
-      </c>
       <c r="R36" s="2" t="s">
-        <v>76</v>
+        <v>54</v>
       </c>
       <c r="S36" s="2" t="s">
-        <v>77</v>
+        <v>55</v>
       </c>
       <c r="T36" s="2" t="s">
-        <v>76</v>
+        <v>54</v>
       </c>
       <c r="U36" s="2" t="s">
-        <v>76</v>
+        <v>54</v>
       </c>
       <c r="V36" s="2" t="s">
-        <v>76</v>
+        <v>54</v>
       </c>
       <c r="W36" s="2" t="s">
-        <v>78</v>
+        <v>56</v>
       </c>
       <c r="X36" s="2" t="s">
-        <v>103</v>
+        <v>81</v>
       </c>
     </row>
     <row r="37" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="2" t="s">
-        <v>260</v>
+        <v>236</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>64</v>
+        <v>42</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>80</v>
+        <v>58</v>
       </c>
       <c r="D37" s="6">
         <v>37</v>
@@ -5659,68 +5475,68 @@
         <v>26-65</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>81</v>
+        <v>59</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>93</v>
+        <v>71</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>90</v>
+        <v>68</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>91</v>
+        <v>69</v>
       </c>
       <c r="J37" s="2" t="s">
-        <v>92</v>
+        <v>70</v>
       </c>
       <c r="K37" s="2" t="s">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="L37" s="2"/>
       <c r="M37" s="2"/>
       <c r="N37" s="2" t="s">
-        <v>72</v>
+        <v>50</v>
       </c>
       <c r="O37" s="2" t="s">
-        <v>120</v>
+        <v>98</v>
       </c>
       <c r="P37" s="2" t="s">
-        <v>95</v>
+        <v>73</v>
       </c>
       <c r="Q37" s="2" t="s">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="R37" s="2" t="s">
-        <v>76</v>
+        <v>54</v>
       </c>
       <c r="S37" s="2" t="s">
-        <v>77</v>
+        <v>55</v>
       </c>
       <c r="T37" s="2" t="s">
-        <v>76</v>
+        <v>54</v>
       </c>
       <c r="U37" s="2" t="s">
-        <v>76</v>
+        <v>54</v>
       </c>
       <c r="V37" s="2" t="s">
-        <v>76</v>
+        <v>54</v>
       </c>
       <c r="W37" s="2" t="s">
-        <v>78</v>
+        <v>56</v>
       </c>
       <c r="X37" s="2" t="s">
-        <v>103</v>
+        <v>81</v>
       </c>
     </row>
     <row r="38" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38" s="2" t="s">
-        <v>261</v>
+        <v>237</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>100</v>
+        <v>78</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>80</v>
+        <v>58</v>
       </c>
       <c r="D38" s="6">
         <v>52</v>
@@ -5730,72 +5546,72 @@
         <v>26-65</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>81</v>
+        <v>59</v>
       </c>
       <c r="G38" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H38" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="I38" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="J38" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="K38" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="L38" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="M38" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="N38" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="O38" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="P38" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q38" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="R38" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="S38" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="T38" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="U38" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="V38" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="W38" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="H38" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="I38" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="J38" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="K38" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="L38" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="M38" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="N38" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="O38" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="P38" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="Q38" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="R38" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="S38" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="T38" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="U38" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="V38" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="W38" s="2" t="s">
-        <v>87</v>
-      </c>
       <c r="X38" s="2" t="s">
-        <v>146</v>
+        <v>124</v>
       </c>
     </row>
     <row r="39" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39" s="2" t="s">
-        <v>262</v>
+        <v>238</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>100</v>
+        <v>78</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>80</v>
+        <v>58</v>
       </c>
       <c r="D39" s="6">
         <v>33</v>
@@ -5805,68 +5621,68 @@
         <v>26-65</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>81</v>
+        <v>59</v>
       </c>
       <c r="G39" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="H39" s="2" t="s">
-        <v>90</v>
-      </c>
       <c r="I39" s="2" t="s">
-        <v>91</v>
+        <v>69</v>
       </c>
       <c r="J39" s="2" t="s">
-        <v>111</v>
+        <v>89</v>
       </c>
       <c r="K39" s="2" t="s">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="L39" s="2"/>
       <c r="M39" s="2"/>
       <c r="N39" s="2" t="s">
-        <v>116</v>
+        <v>94</v>
       </c>
       <c r="O39" s="2" t="s">
-        <v>102</v>
+        <v>80</v>
       </c>
       <c r="P39" s="2" t="s">
-        <v>95</v>
+        <v>73</v>
       </c>
       <c r="Q39" s="2" t="s">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="R39" s="2" t="s">
-        <v>76</v>
+        <v>54</v>
       </c>
       <c r="S39" s="2" t="s">
-        <v>77</v>
+        <v>55</v>
       </c>
       <c r="T39" s="2" t="s">
-        <v>76</v>
+        <v>54</v>
       </c>
       <c r="U39" s="2" t="s">
-        <v>76</v>
+        <v>54</v>
       </c>
       <c r="V39" s="2" t="s">
-        <v>76</v>
+        <v>54</v>
       </c>
       <c r="W39" s="2" t="s">
-        <v>97</v>
+        <v>75</v>
       </c>
       <c r="X39" s="2" t="s">
-        <v>139</v>
+        <v>117</v>
       </c>
     </row>
     <row r="40" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="2" t="s">
-        <v>263</v>
+        <v>239</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>100</v>
+        <v>78</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>80</v>
+        <v>58</v>
       </c>
       <c r="D40" s="6">
         <v>38</v>
@@ -5876,68 +5692,68 @@
         <v>26-65</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>81</v>
+        <v>59</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>63</v>
+        <v>41</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>90</v>
+        <v>68</v>
       </c>
       <c r="I40" s="2" t="s">
-        <v>91</v>
+        <v>69</v>
       </c>
       <c r="J40" s="2" t="s">
-        <v>71</v>
+        <v>49</v>
       </c>
       <c r="K40" s="2" t="s">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="L40" s="2"/>
       <c r="M40" s="2"/>
       <c r="N40" s="2" t="s">
-        <v>72</v>
+        <v>50</v>
       </c>
       <c r="O40" s="2" t="s">
-        <v>84</v>
+        <v>62</v>
       </c>
       <c r="P40" s="2" t="s">
-        <v>74</v>
+        <v>52</v>
       </c>
       <c r="Q40" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="R40" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="S40" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="T40" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="U40" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="V40" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="W40" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="R40" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="S40" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="T40" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="U40" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="V40" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="W40" s="2" t="s">
-        <v>97</v>
-      </c>
       <c r="X40" s="2" t="s">
-        <v>103</v>
+        <v>81</v>
       </c>
     </row>
     <row r="41" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="2" t="s">
-        <v>264</v>
+        <v>240</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>100</v>
+        <v>78</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>80</v>
+        <v>58</v>
       </c>
       <c r="D41" s="6">
         <v>45</v>
@@ -5947,72 +5763,72 @@
         <v>26-65</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>81</v>
+        <v>59</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>93</v>
+        <v>71</v>
       </c>
       <c r="H41" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="I41" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="J41" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="K41" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="L41" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="M41" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="N41" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="I41" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="J41" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="K41" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="L41" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="M41" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="N41" s="2" t="s">
-        <v>112</v>
-      </c>
       <c r="O41" s="2" t="s">
-        <v>120</v>
+        <v>98</v>
       </c>
       <c r="P41" s="2" t="s">
-        <v>95</v>
+        <v>73</v>
       </c>
       <c r="Q41" s="2" t="s">
-        <v>75</v>
+        <v>53</v>
       </c>
       <c r="R41" s="2" t="s">
-        <v>76</v>
+        <v>54</v>
       </c>
       <c r="S41" s="2" t="s">
-        <v>77</v>
+        <v>55</v>
       </c>
       <c r="T41" s="2" t="s">
-        <v>76</v>
+        <v>54</v>
       </c>
       <c r="U41" s="2" t="s">
-        <v>77</v>
+        <v>55</v>
       </c>
       <c r="V41" s="2" t="s">
-        <v>76</v>
+        <v>54</v>
       </c>
       <c r="W41" s="2" t="s">
-        <v>78</v>
+        <v>56</v>
       </c>
       <c r="X41" s="2" t="s">
-        <v>156</v>
+        <v>134</v>
       </c>
     </row>
     <row r="42" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="2" t="s">
-        <v>265</v>
+        <v>241</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>118</v>
+        <v>96</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>80</v>
+        <v>58</v>
       </c>
       <c r="D42" s="6">
         <v>36</v>
@@ -6022,72 +5838,72 @@
         <v>26-65</v>
       </c>
       <c r="F42" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H42" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="I42" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="J42" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="K42" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="L42" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="M42" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="N42" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="O42" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="P42" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q42" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="R42" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="S42" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="T42" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="U42" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="V42" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="W42" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="X42" s="2" t="s">
         <v>81</v>
-      </c>
-      <c r="G42" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="H42" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="I42" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="J42" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="K42" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="L42" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="M42" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="N42" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="O42" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="P42" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="Q42" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="R42" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="S42" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="T42" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="U42" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="V42" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="W42" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="X42" s="2" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="43" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="2" t="s">
-        <v>266</v>
+        <v>242</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>118</v>
+        <v>96</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>80</v>
+        <v>58</v>
       </c>
       <c r="D43" s="6">
         <v>47</v>
@@ -6097,72 +5913,72 @@
         <v>26-65</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>81</v>
+        <v>59</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>93</v>
+        <v>71</v>
       </c>
       <c r="H43" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="I43" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="J43" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="K43" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="L43" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="M43" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="N43" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="I43" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="J43" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="K43" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="L43" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="M43" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="N43" s="2" t="s">
-        <v>112</v>
-      </c>
       <c r="O43" s="2" t="s">
-        <v>73</v>
+        <v>51</v>
       </c>
       <c r="P43" s="2" t="s">
-        <v>106</v>
+        <v>84</v>
       </c>
       <c r="Q43" s="2" t="s">
-        <v>86</v>
+        <v>64</v>
       </c>
       <c r="R43" s="2" t="s">
-        <v>76</v>
+        <v>54</v>
       </c>
       <c r="S43" s="2" t="s">
-        <v>77</v>
+        <v>55</v>
       </c>
       <c r="T43" s="2" t="s">
-        <v>77</v>
+        <v>55</v>
       </c>
       <c r="U43" s="2" t="s">
-        <v>77</v>
+        <v>55</v>
       </c>
       <c r="V43" s="2" t="s">
-        <v>76</v>
+        <v>54</v>
       </c>
       <c r="W43" s="2" t="s">
-        <v>97</v>
+        <v>75</v>
       </c>
       <c r="X43" s="2" t="s">
-        <v>144</v>
+        <v>122</v>
       </c>
     </row>
     <row r="44" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A44" s="2" t="s">
-        <v>267</v>
+        <v>243</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>118</v>
+        <v>96</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>80</v>
+        <v>58</v>
       </c>
       <c r="D44" s="6">
         <v>36</v>
@@ -6172,72 +5988,72 @@
         <v>26-65</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>65</v>
+        <v>43</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>90</v>
+        <v>68</v>
       </c>
       <c r="I44" s="2" t="s">
-        <v>82</v>
+        <v>60</v>
       </c>
       <c r="J44" s="2" t="s">
-        <v>111</v>
+        <v>89</v>
       </c>
       <c r="K44" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="L44" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="M44" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="N44" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="O44" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="P44" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q44" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="R44" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="S44" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="T44" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="U44" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="V44" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="W44" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="X44" s="2" t="s">
         <v>81</v>
-      </c>
-      <c r="L44" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="M44" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="N44" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="O44" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="P44" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="Q44" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="R44" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="S44" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="T44" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="U44" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="V44" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="W44" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="X44" s="2" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="45" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A45" s="2" t="s">
-        <v>268</v>
+        <v>244</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>118</v>
+        <v>96</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>80</v>
+        <v>58</v>
       </c>
       <c r="D45" s="6">
         <v>45</v>
@@ -6247,72 +6063,72 @@
         <v>26-65</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>81</v>
+        <v>59</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>63</v>
+        <v>41</v>
       </c>
       <c r="H45" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="I45" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="J45" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="K45" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="L45" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="M45" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="N45" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="I45" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="J45" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="K45" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="L45" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="M45" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="N45" s="2" t="s">
-        <v>112</v>
-      </c>
       <c r="O45" s="2" t="s">
-        <v>102</v>
+        <v>80</v>
       </c>
       <c r="P45" s="2" t="s">
-        <v>95</v>
+        <v>73</v>
       </c>
       <c r="Q45" s="2" t="s">
-        <v>75</v>
+        <v>53</v>
       </c>
       <c r="R45" s="2" t="s">
-        <v>76</v>
+        <v>54</v>
       </c>
       <c r="S45" s="2" t="s">
-        <v>77</v>
+        <v>55</v>
       </c>
       <c r="T45" s="2" t="s">
-        <v>76</v>
+        <v>54</v>
       </c>
       <c r="U45" s="2" t="s">
-        <v>76</v>
+        <v>54</v>
       </c>
       <c r="V45" s="2" t="s">
-        <v>76</v>
+        <v>54</v>
       </c>
       <c r="W45" s="2" t="s">
-        <v>78</v>
+        <v>56</v>
       </c>
       <c r="X45" s="2" t="s">
-        <v>122</v>
+        <v>100</v>
       </c>
     </row>
     <row r="46" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A46" s="2" t="s">
-        <v>269</v>
+        <v>245</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>64</v>
+        <v>42</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>80</v>
+        <v>58</v>
       </c>
       <c r="D46" s="6">
         <v>65</v>
@@ -6322,68 +6138,68 @@
         <v>26-65</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>81</v>
+        <v>59</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>93</v>
+        <v>71</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>123</v>
+        <v>101</v>
       </c>
       <c r="I46" s="2" t="s">
-        <v>82</v>
+        <v>60</v>
       </c>
       <c r="J46" s="2" t="s">
-        <v>71</v>
+        <v>49</v>
       </c>
       <c r="K46" s="2" t="s">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="L46" s="2"/>
       <c r="M46" s="2"/>
       <c r="N46" s="2" t="s">
-        <v>72</v>
+        <v>50</v>
       </c>
       <c r="O46" s="2" t="s">
-        <v>84</v>
+        <v>62</v>
       </c>
       <c r="P46" s="2" t="s">
-        <v>131</v>
+        <v>109</v>
       </c>
       <c r="Q46" s="2" t="s">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="R46" s="2" t="s">
-        <v>76</v>
+        <v>54</v>
       </c>
       <c r="S46" s="2" t="s">
-        <v>77</v>
+        <v>55</v>
       </c>
       <c r="T46" s="2" t="s">
-        <v>76</v>
+        <v>54</v>
       </c>
       <c r="U46" s="2" t="s">
-        <v>77</v>
+        <v>55</v>
       </c>
       <c r="V46" s="2" t="s">
-        <v>76</v>
+        <v>54</v>
       </c>
       <c r="W46" s="2" t="s">
-        <v>97</v>
+        <v>75</v>
       </c>
       <c r="X46" s="2" t="s">
-        <v>132</v>
+        <v>110</v>
       </c>
     </row>
     <row r="47" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A47" s="2" t="s">
-        <v>270</v>
+        <v>246</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>100</v>
+        <v>78</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>80</v>
+        <v>58</v>
       </c>
       <c r="D47" s="6">
         <v>68</v>
@@ -6393,72 +6209,72 @@
         <v>&gt;65</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>81</v>
+        <v>59</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>63</v>
+        <v>41</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>123</v>
+        <v>101</v>
       </c>
       <c r="I47" s="2" t="s">
-        <v>91</v>
+        <v>69</v>
       </c>
       <c r="J47" s="2" t="s">
-        <v>111</v>
+        <v>89</v>
       </c>
       <c r="K47" s="2" t="s">
-        <v>81</v>
+        <v>59</v>
       </c>
       <c r="L47" s="2" t="s">
-        <v>68</v>
+        <v>46</v>
       </c>
       <c r="M47" s="2" t="s">
-        <v>159</v>
+        <v>137</v>
       </c>
       <c r="N47" s="2" t="s">
-        <v>72</v>
+        <v>50</v>
       </c>
       <c r="O47" s="2" t="s">
-        <v>105</v>
+        <v>83</v>
       </c>
       <c r="P47" s="2" t="s">
-        <v>95</v>
+        <v>73</v>
       </c>
       <c r="Q47" s="2" t="s">
-        <v>75</v>
+        <v>53</v>
       </c>
       <c r="R47" s="2" t="s">
-        <v>76</v>
+        <v>54</v>
       </c>
       <c r="S47" s="2" t="s">
-        <v>77</v>
+        <v>55</v>
       </c>
       <c r="T47" s="2" t="s">
-        <v>77</v>
+        <v>55</v>
       </c>
       <c r="U47" s="2" t="s">
-        <v>77</v>
+        <v>55</v>
       </c>
       <c r="V47" s="2" t="s">
-        <v>76</v>
+        <v>54</v>
       </c>
       <c r="W47" s="2" t="s">
-        <v>78</v>
+        <v>56</v>
       </c>
       <c r="X47" s="2" t="s">
-        <v>160</v>
+        <v>138</v>
       </c>
     </row>
     <row r="48" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A48" s="2" t="s">
-        <v>271</v>
+        <v>247</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>100</v>
+        <v>78</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>80</v>
+        <v>58</v>
       </c>
       <c r="D48" s="6">
         <v>69</v>
@@ -6468,68 +6284,68 @@
         <v>&gt;65</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>81</v>
+        <v>59</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>68</v>
+        <v>46</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>123</v>
+        <v>101</v>
       </c>
       <c r="I48" s="2" t="s">
-        <v>91</v>
+        <v>69</v>
       </c>
       <c r="J48" s="2" t="s">
-        <v>70</v>
+        <v>48</v>
       </c>
       <c r="K48" s="2" t="s">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="L48" s="2"/>
       <c r="M48" s="2"/>
       <c r="N48" s="2" t="s">
-        <v>72</v>
+        <v>50</v>
       </c>
       <c r="O48" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="P48" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="P48" s="2" t="s">
-        <v>106</v>
-      </c>
       <c r="Q48" s="2" t="s">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="R48" s="2" t="s">
-        <v>76</v>
+        <v>54</v>
       </c>
       <c r="S48" s="2" t="s">
-        <v>77</v>
+        <v>55</v>
       </c>
       <c r="T48" s="2" t="s">
-        <v>77</v>
+        <v>55</v>
       </c>
       <c r="U48" s="2" t="s">
-        <v>76</v>
+        <v>54</v>
       </c>
       <c r="V48" s="2" t="s">
-        <v>77</v>
+        <v>55</v>
       </c>
       <c r="W48" s="2" t="s">
-        <v>97</v>
+        <v>75</v>
       </c>
       <c r="X48" s="2" t="s">
-        <v>151</v>
+        <v>129</v>
       </c>
     </row>
     <row r="49" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="2" t="s">
-        <v>272</v>
+        <v>248</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>100</v>
+        <v>78</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>80</v>
+        <v>58</v>
       </c>
       <c r="D49" s="6">
         <v>75</v>
@@ -6539,68 +6355,68 @@
         <v>&gt;65</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>81</v>
+        <v>59</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>68</v>
+        <v>46</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>123</v>
+        <v>101</v>
       </c>
       <c r="I49" s="2" t="s">
-        <v>91</v>
+        <v>69</v>
       </c>
       <c r="J49" s="2" t="s">
-        <v>111</v>
+        <v>89</v>
       </c>
       <c r="K49" s="2" t="s">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="L49" s="2"/>
       <c r="M49" s="2"/>
       <c r="N49" s="2" t="s">
-        <v>72</v>
+        <v>50</v>
       </c>
       <c r="O49" s="2" t="s">
-        <v>84</v>
+        <v>62</v>
       </c>
       <c r="P49" s="2" t="s">
-        <v>95</v>
+        <v>73</v>
       </c>
       <c r="Q49" s="2" t="s">
-        <v>75</v>
+        <v>53</v>
       </c>
       <c r="R49" s="2" t="s">
-        <v>76</v>
+        <v>54</v>
       </c>
       <c r="S49" s="2" t="s">
-        <v>77</v>
+        <v>55</v>
       </c>
       <c r="T49" s="2" t="s">
-        <v>76</v>
+        <v>54</v>
       </c>
       <c r="U49" s="2" t="s">
-        <v>76</v>
+        <v>54</v>
       </c>
       <c r="V49" s="2" t="s">
-        <v>76</v>
+        <v>54</v>
       </c>
       <c r="W49" s="2" t="s">
-        <v>78</v>
+        <v>56</v>
       </c>
       <c r="X49" s="2" t="s">
-        <v>103</v>
+        <v>81</v>
       </c>
     </row>
     <row r="50" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A50" s="2" t="s">
-        <v>273</v>
+        <v>249</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>118</v>
+        <v>96</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>80</v>
+        <v>58</v>
       </c>
       <c r="D50" s="6">
         <v>80</v>
@@ -6610,61 +6426,61 @@
         <v>&gt;65</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>81</v>
+        <v>59</v>
       </c>
       <c r="G50" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="H50" s="2" t="s">
-        <v>90</v>
-      </c>
       <c r="I50" s="2" t="s">
-        <v>91</v>
+        <v>69</v>
       </c>
       <c r="J50" s="2" t="s">
-        <v>111</v>
+        <v>89</v>
       </c>
       <c r="K50" s="2" t="s">
-        <v>81</v>
+        <v>59</v>
       </c>
       <c r="L50" s="2" t="s">
-        <v>93</v>
+        <v>71</v>
       </c>
       <c r="M50" s="2" t="s">
-        <v>148</v>
+        <v>126</v>
       </c>
       <c r="N50" s="2" t="s">
-        <v>72</v>
+        <v>50</v>
       </c>
       <c r="O50" s="2" t="s">
-        <v>120</v>
+        <v>98</v>
       </c>
       <c r="P50" s="2" t="s">
-        <v>74</v>
+        <v>52</v>
       </c>
       <c r="Q50" s="2" t="s">
-        <v>75</v>
+        <v>53</v>
       </c>
       <c r="R50" s="2" t="s">
-        <v>76</v>
+        <v>54</v>
       </c>
       <c r="S50" s="2" t="s">
-        <v>77</v>
+        <v>55</v>
       </c>
       <c r="T50" s="2" t="s">
-        <v>76</v>
+        <v>54</v>
       </c>
       <c r="U50" s="2" t="s">
-        <v>76</v>
+        <v>54</v>
       </c>
       <c r="V50" s="2" t="s">
-        <v>76</v>
+        <v>54</v>
       </c>
       <c r="W50" s="2" t="s">
-        <v>78</v>
+        <v>56</v>
       </c>
       <c r="X50" s="2" t="s">
-        <v>153</v>
+        <v>131</v>
       </c>
     </row>
     <row r="51" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -7688,156 +7504,156 @@
   <sheetData>
     <row r="1" spans="1:50" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B1" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="V1" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="W1" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="X1" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="Y1" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="Z1" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="AA1" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="AB1" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="AC1" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="AD1" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="AE1" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="AF1" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="AG1" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="AH1" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="AI1" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="AJ1" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="AK1" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="AL1" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="AM1" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="AN1" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="AO1" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="AP1" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="AQ1" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="AR1" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="AS1" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="AT1" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="AU1" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="AV1" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="Y1" s="2" t="s">
+      <c r="AW1" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="Z1" s="2" t="s">
+      <c r="AX1" s="2" t="s">
         <v>249</v>
-      </c>
-      <c r="AA1" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="AB1" s="2" t="s">
-        <v>251</v>
-      </c>
-      <c r="AC1" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="AD1" s="2" t="s">
-        <v>253</v>
-      </c>
-      <c r="AE1" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="AF1" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="AG1" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="AH1" s="2" t="s">
-        <v>257</v>
-      </c>
-      <c r="AI1" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="AJ1" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="AK1" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="AL1" s="2" t="s">
-        <v>261</v>
-      </c>
-      <c r="AM1" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="AN1" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="AO1" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="AP1" s="2" t="s">
-        <v>265</v>
-      </c>
-      <c r="AQ1" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="AR1" s="2" t="s">
-        <v>267</v>
-      </c>
-      <c r="AS1" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="AT1" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="AU1" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="AV1" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="AW1" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="AX1" s="2" t="s">
-        <v>273</v>
       </c>
     </row>
     <row r="2" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="8" t="s">
-        <v>274</v>
+        <v>250</v>
       </c>
       <c r="B2">
         <v>4</v>
@@ -7989,7 +7805,7 @@
     </row>
     <row r="3" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="8" t="s">
-        <v>275</v>
+        <v>251</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -8141,7 +7957,7 @@
     </row>
     <row r="4" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="8" t="s">
-        <v>276</v>
+        <v>252</v>
       </c>
       <c r="B4">
         <v>-2</v>
@@ -8293,7 +8109,7 @@
     </row>
     <row r="5" spans="1:50" ht="12.3" x14ac:dyDescent="0.4">
       <c r="A5" s="8" t="s">
-        <v>277</v>
+        <v>253</v>
       </c>
       <c r="B5">
         <v>4</v>
@@ -8445,7 +8261,7 @@
     </row>
     <row r="6" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="8" t="s">
-        <v>278</v>
+        <v>254</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -8597,7 +8413,7 @@
     </row>
     <row r="7" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="8" t="s">
-        <v>279</v>
+        <v>255</v>
       </c>
       <c r="B7">
         <v>-2</v>
@@ -8749,7 +8565,7 @@
     </row>
     <row r="8" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="8" t="s">
-        <v>280</v>
+        <v>256</v>
       </c>
       <c r="B8">
         <v>3</v>
@@ -8901,7 +8717,7 @@
     </row>
     <row r="9" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="8" t="s">
-        <v>281</v>
+        <v>257</v>
       </c>
       <c r="B9">
         <v>-1</v>
@@ -9053,7 +8869,7 @@
     </row>
     <row r="10" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="8" t="s">
-        <v>282</v>
+        <v>258</v>
       </c>
       <c r="B10">
         <v>-1</v>
@@ -9205,7 +9021,7 @@
     </row>
     <row r="11" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="8" t="s">
-        <v>283</v>
+        <v>259</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -9357,7 +9173,7 @@
     </row>
     <row r="12" spans="1:50" ht="12.3" x14ac:dyDescent="0.4">
       <c r="A12" s="8" t="s">
-        <v>284</v>
+        <v>260</v>
       </c>
       <c r="B12">
         <v>3</v>
@@ -9509,7 +9325,7 @@
     </row>
     <row r="13" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="8" t="s">
-        <v>285</v>
+        <v>261</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -9661,7 +9477,7 @@
     </row>
     <row r="14" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="8" t="s">
-        <v>286</v>
+        <v>262</v>
       </c>
       <c r="B14">
         <v>-2</v>
@@ -9813,7 +9629,7 @@
     </row>
     <row r="15" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="8" t="s">
-        <v>287</v>
+        <v>263</v>
       </c>
       <c r="B15">
         <v>-2</v>
@@ -9965,7 +9781,7 @@
     </row>
     <row r="16" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="8" t="s">
-        <v>288</v>
+        <v>264</v>
       </c>
       <c r="B16">
         <v>5</v>
@@ -10117,7 +9933,7 @@
     </row>
     <row r="17" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="8" t="s">
-        <v>289</v>
+        <v>265</v>
       </c>
       <c r="B17">
         <v>3</v>
@@ -10269,7 +10085,7 @@
     </row>
     <row r="18" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="8" t="s">
-        <v>290</v>
+        <v>266</v>
       </c>
       <c r="B18">
         <v>-1</v>
@@ -10421,7 +10237,7 @@
     </row>
     <row r="19" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="8" t="s">
-        <v>291</v>
+        <v>267</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -10573,7 +10389,7 @@
     </row>
     <row r="20" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="8" t="s">
-        <v>292</v>
+        <v>268</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -10725,7 +10541,7 @@
     </row>
     <row r="21" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="8" t="s">
-        <v>293</v>
+        <v>269</v>
       </c>
       <c r="B21">
         <v>-1</v>
@@ -10877,7 +10693,7 @@
     </row>
     <row r="22" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="8" t="s">
-        <v>294</v>
+        <v>270</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -11029,7 +10845,7 @@
     </row>
     <row r="23" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="8" t="s">
-        <v>295</v>
+        <v>271</v>
       </c>
       <c r="B23">
         <v>-3</v>
@@ -11181,7 +10997,7 @@
     </row>
     <row r="24" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="8" t="s">
-        <v>296</v>
+        <v>272</v>
       </c>
       <c r="B24">
         <v>2</v>
@@ -11333,7 +11149,7 @@
     </row>
     <row r="25" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A25" s="8" t="s">
-        <v>297</v>
+        <v>273</v>
       </c>
       <c r="B25">
         <v>1</v>
@@ -11485,7 +11301,7 @@
     </row>
     <row r="26" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A26" s="8" t="s">
-        <v>298</v>
+        <v>274</v>
       </c>
       <c r="B26">
         <v>0</v>
@@ -11637,7 +11453,7 @@
     </row>
     <row r="27" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="8" t="s">
-        <v>299</v>
+        <v>275</v>
       </c>
       <c r="B27">
         <v>1</v>
@@ -11789,7 +11605,7 @@
     </row>
     <row r="28" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="8" t="s">
-        <v>300</v>
+        <v>276</v>
       </c>
       <c r="B28">
         <v>2</v>
@@ -11941,7 +11757,7 @@
     </row>
     <row r="29" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="8" t="s">
-        <v>301</v>
+        <v>277</v>
       </c>
       <c r="B29">
         <v>-4</v>
@@ -12093,7 +11909,7 @@
     </row>
     <row r="30" spans="1:50" ht="12.3" x14ac:dyDescent="0.4">
       <c r="A30" s="8" t="s">
-        <v>302</v>
+        <v>278</v>
       </c>
       <c r="B30">
         <v>-3</v>
@@ -12245,7 +12061,7 @@
     </row>
     <row r="31" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="8" t="s">
-        <v>303</v>
+        <v>279</v>
       </c>
       <c r="B31">
         <v>1</v>
@@ -12397,7 +12213,7 @@
     </row>
     <row r="32" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="8" t="s">
-        <v>304</v>
+        <v>280</v>
       </c>
       <c r="B32">
         <v>2</v>
@@ -12549,7 +12365,7 @@
     </row>
     <row r="33" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33" s="8" t="s">
-        <v>305</v>
+        <v>281</v>
       </c>
       <c r="B33">
         <v>0</v>
@@ -12701,7 +12517,7 @@
     </row>
     <row r="34" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34" s="8" t="s">
-        <v>306</v>
+        <v>282</v>
       </c>
       <c r="B34">
         <v>-3</v>
@@ -12853,7 +12669,7 @@
     </row>
     <row r="35" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="8" t="s">
-        <v>307</v>
+        <v>283</v>
       </c>
       <c r="B35">
         <v>-1</v>
@@ -13005,7 +12821,7 @@
     </row>
     <row r="36" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36" s="8" t="s">
-        <v>308</v>
+        <v>284</v>
       </c>
       <c r="B36">
         <v>-4</v>
@@ -13157,7 +12973,7 @@
     </row>
     <row r="37" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="8" t="s">
-        <v>309</v>
+        <v>285</v>
       </c>
       <c r="B37">
         <v>-5</v>
